--- a/ColetasBR/Coletas BR - v1.1.xlsx
+++ b/ColetasBR/Coletas BR - v1.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\range\Documents\Innan\TCC\ColetasBR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\range\Documents\GitHub\TCC2\ColetasBR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCAAA3B-A3AD-4D31-AC38-D54799028DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A52E02-5A4F-4B1B-8BE7-168497761564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,7 +854,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="152">
   <si>
     <t>all</t>
   </si>
@@ -1290,6 +1290,27 @@
   <si>
     <t>old_2</t>
   </si>
+  <si>
+    <t>sem instrução fundamental completo</t>
+  </si>
+  <si>
+    <t>fundamental completo e medio incompleto</t>
+  </si>
+  <si>
+    <t>medio completo e superior incompleto</t>
+  </si>
+  <si>
+    <t>superior completo</t>
+  </si>
+  <si>
+    <t>não determinado</t>
+  </si>
+  <si>
+    <t>IBGE</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
 </sst>
 </file>
 
@@ -1658,7 +1679,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3588,7 +3608,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3618,7 +3638,7 @@
             <c:numRef>
               <c:f>Censo!$B$2:$D$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>211800000</c:v>
@@ -3646,7 +3666,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3679,7 +3699,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3874,7 +3893,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3909,6 +3928,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3917,9 +3975,463 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Censo!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IBGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Censo!$C$10:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>fundamental completo e medio incompleto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>medio completo e superior incompleto</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>superior completo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>não determinado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Censo!$C$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28178794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37980515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13463757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>971655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F8E-48BA-9FA7-A9B1A2956C91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Censo!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Censo!$C$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6700000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F8E-48BA-9FA7-A9B1A2956C91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="483445520"/>
+        <c:axId val="483446832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="483445520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Nivel de Escolaridade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483446832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483446832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Quantidade de Pessoas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483445520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3927,27 +4439,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4113,6 +4605,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6206,6 +6738,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6318,16 +7353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>464344</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>92869</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>158352</xdr:rowOff>
+      <xdr:rowOff>82152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>166686</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>51287</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>404811</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6352,95 +7387,133 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>585106</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>435427</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9D5C57-C980-4518-AAC1-977F92CA6A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-31--23-46-27." connectionId="10" xr16:uid="{3828880D-38FB-4A89-9770-E472B182A212}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-10-19--19-13-14." connectionId="1" xr16:uid="{5783A6B0-B4B0-42A8-9FA6-6768390A4C1A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-10--10-26-23." connectionId="26" xr16:uid="{43E54033-B9EC-4AF9-AC97-06FF8F6B0327}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-22--14-08-05." connectionId="32" xr16:uid="{465DE2E0-A3BA-452B-8430-40B1D3103D46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-26--14-04-35." connectionId="22" xr16:uid="{28C57D39-A16D-4D1C-BAE8-E4A0F99E6B62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-04--12-54-27." connectionId="44" xr16:uid="{ED6719FB-56CF-4D9A-99A6-20F2D00D3A2F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-01--10-12-36." connectionId="28" xr16:uid="{CD77897F-FEB5-4B31-A23F-B82B2407E78B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-20--10-04-32." connectionId="20" xr16:uid="{FA816790-AFAE-4233-80D8-B2A5B9AC85C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-03--15-34-33." connectionId="58" xr16:uid="{9880303F-C222-468D-8506-F2A764A0004C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-07--11-58-28." connectionId="46" xr16:uid="{568865A5-B789-4757-9759-C3783685864C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-23--22-00-14." connectionId="78" xr16:uid="{76A895F7-246D-4DF3-B554-716C0DAB1DFA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-01--09-11-48." connectionId="24" xr16:uid="{CBF0A316-5534-4AD8-B72E-C6CC29E34469}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-18--16-25-42." connectionId="76" xr16:uid="{84D16A29-8C23-4A81-927E-49B0C9A808AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-03--09-28-47." connectionId="4" xr16:uid="{E43A9973-C309-4C8C-88FA-B3A90584C0F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-22--15-18-20." connectionId="66" xr16:uid="{496E912C-E26B-421B-8FC9-7AA4E9D41D6A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-28--20-59-58." connectionId="34" xr16:uid="{C92C1CB3-EB78-4844-B02B-8041F726FD80}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-11-03--11-19-00." connectionId="80" xr16:uid="{C62D2D21-FA05-4D07-9737-2DFAE46E014D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-13--01-37-01." connectionId="30" xr16:uid="{A289FB90-7665-4BCE-99E3-63C94B4A1063}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-14--15-31-25." connectionId="68" xr16:uid="{73DD4532-91C6-4C1E-81BD-4DA3C500557A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-23--21-35-08." connectionId="50" xr16:uid="{843C35F3-BBB9-4938-8561-98265A6B4E52}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-04--19-42-49." connectionId="72" xr16:uid="{B9A7B024-E3F7-46F9-95F2-04A97D19DD2A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-26--16-43-29." connectionId="62" xr16:uid="{F8487CE0-6D42-4831-A7C0-35054AC98A4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-11--17-49-44." connectionId="74" xr16:uid="{C2D28593-50E3-45C6-A210-D63E28B7BC34}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-05--18-02-30." connectionId="36" xr16:uid="{6F7911C9-7961-4267-BA3E-DF94E36CF404}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-20--10-04-32." connectionId="20" xr16:uid="{FA816790-AFAE-4233-80D8-B2A5B9AC85C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-22--15-18-20." connectionId="66" xr16:uid="{496E912C-E26B-421B-8FC9-7AA4E9D41D6A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-23--21-35-08." connectionId="50" xr16:uid="{843C35F3-BBB9-4938-8561-98265A6B4E52}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-28--11-46-01." connectionId="56" xr16:uid="{44584FC3-6540-442D-936B-3AA4FB17C7AE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-12--19-29-31." connectionId="38" xr16:uid="{89992F26-076D-4B08-8492-6C6577C82336}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-11-06--18-22-16." connectionId="18" xr16:uid="{9C61BE59-38FD-4793-A655-4FC848FE1DD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-01--10-12-36." connectionId="28" xr16:uid="{CD77897F-FEB5-4B31-A23F-B82B2407E78B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-18--16-25-42." connectionId="76" xr16:uid="{84D16A29-8C23-4A81-927E-49B0C9A808AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-14--15-31-25." connectionId="68" xr16:uid="{73DD4532-91C6-4C1E-81BD-4DA3C500557A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-14--12-59-25." connectionId="54" xr16:uid="{27A16EBA-FE91-4C57-BA3C-7F1E53508E10}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-19--14-30-30." connectionId="40" xr16:uid="{FCBD3655-9649-4E7C-9004-3ADF79D19065}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-04--12-54-27." connectionId="44" xr16:uid="{ED6719FB-56CF-4D9A-99A6-20F2D00D3A2F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-01--09-11-48." connectionId="24" xr16:uid="{CBF0A316-5534-4AD8-B72E-C6CC29E34469}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-30--16-20-14." connectionId="42" xr16:uid="{C3761F56-E40D-45B5-86DB-85449DFDF8BC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-10-19--19-13-14." connectionId="2" xr16:uid="{2CFD31C4-9466-4789-8E9D-F92F44DD0729}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-03--15-34-33." connectionId="58" xr16:uid="{9880303F-C222-468D-8506-F2A764A0004C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-28--11-46-01." connectionId="56" xr16:uid="{44584FC3-6540-442D-936B-3AA4FB17C7AE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6448,7 +7521,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-13--01-37-01." connectionId="30" xr16:uid="{A289FB90-7665-4BCE-99E3-63C94B4A1063}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-20--11-26-52." connectionId="70" xr16:uid="{77580255-2072-4742-B585-45F22FA5A6FE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6456,83 +7529,83 @@
 </file>
 
 <file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-14--12-59-25." connectionId="54" xr16:uid="{27A16EBA-FE91-4C57-BA3C-7F1E53508E10}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-26--16-43-29." connectionId="62" xr16:uid="{F8487CE0-6D42-4831-A7C0-35054AC98A4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-11--10-58-23." connectionId="52" xr16:uid="{5BCA2718-2192-4489-B887-F98D8EA364B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-19--19-04-42." connectionId="60" xr16:uid="{EEE4F128-A8CB-4B5C-A06E-4DB7228D1F0A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-26--14-04-35." connectionId="22" xr16:uid="{28C57D39-A16D-4D1C-BAE8-E4A0F99E6B62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-23--22-00-14." connectionId="78" xr16:uid="{76A895F7-246D-4DF3-B554-716C0DAB1DFA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-11-03--11-19-00." connectionId="80" xr16:uid="{C62D2D21-FA05-4D07-9737-2DFAE46E014D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-20--11-26-52." connectionId="70" xr16:uid="{77580255-2072-4742-B585-45F22FA5A6FE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-12--19-29-31." connectionId="38" xr16:uid="{89992F26-076D-4B08-8492-6C6577C82336}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-05--18-02-30." connectionId="36" xr16:uid="{6F7911C9-7961-4267-BA3E-DF94E36CF404}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-11--02-24-19." connectionId="48" xr16:uid="{1D6EBC2B-6D36-4FC3-A1DF-F19ED759DEAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-28--20-59-58." connectionId="34" xr16:uid="{C92C1CB3-EB78-4844-B02B-8041F726FD80}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-11--17-49-44." connectionId="74" xr16:uid="{C2D28593-50E3-45C6-A210-D63E28B7BC34}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-10-19--19-13-14." connectionId="2" xr16:uid="{2CFD31C4-9466-4789-8E9D-F92F44DD0729}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-14--16-47-49." connectionId="14" xr16:uid="{FECD3EC5-31CC-4DEB-B1ED-62438F5D10C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-20--04-18-03." connectionId="16" xr16:uid="{0A14F2D3-98C5-4A0F-B645-49125C615FBD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-11--10-58-23." connectionId="52" xr16:uid="{5BCA2718-2192-4489-B887-F98D8EA364B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-19--14-30-30." connectionId="40" xr16:uid="{FCBD3655-9649-4E7C-9004-3ADF79D19065}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-22--14-08-05." connectionId="32" xr16:uid="{465DE2E0-A3BA-452B-8430-40B1D3103D46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-10--10-26-23." connectionId="26" xr16:uid="{43E54033-B9EC-4AF9-AC97-06FF8F6B0327}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-23--22-00-14." connectionId="79" xr16:uid="{7C321CE9-9FCC-4469-A0C3-BF46CFB5DFB2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-19--19-04-42." connectionId="61" xr16:uid="{D7CA359A-BA96-4E2F-9AB7-8CB59903F49D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-04--12-54-27." connectionId="45" xr16:uid="{51759692-A054-4DF8-816E-19318DCB9CA5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-20--10-04-32." connectionId="21" xr16:uid="{4C88DD11-61A8-4548-A340-EC8D294AB653}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-13--01-37-01." connectionId="31" xr16:uid="{EC51C05D-16D2-4749-A9E2-1A03759811A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-31--23-46-27." connectionId="11" xr16:uid="{86CA9BC6-655D-412F-B4C7-0A157643AABB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-04--06-16-55." connectionId="9" xr16:uid="{17979287-3AD5-4165-91C7-1E95996A45ED}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-20--11-26-52." connectionId="71" xr16:uid="{A3CE5BC8-6653-4087-9741-B7D7698B5A89}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-14--15-31-25." connectionId="69" xr16:uid="{A90C0232-293A-4105-BB68-EC7CC5890A5F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-11--10-58-23." connectionId="53" xr16:uid="{708E98A1-6FFE-415A-82F9-D4DF65E1BFAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-22--15-18-20." connectionId="67" xr16:uid="{0AA829A7-3EB2-46E1-A243-88D7887E3D33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-20--04-18-03." connectionId="17" xr16:uid="{BD73359A-AD2F-4704-BF7E-F9E303411E51}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-01--10-12-36." connectionId="29" xr16:uid="{ECED65A2-4966-440D-B0F3-A795469C6B8F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-10--10-26-23." connectionId="27" xr16:uid="{1DC07640-42AE-4D0C-AD4B-FC91A61E6524}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-31--23-46-27." connectionId="11" xr16:uid="{86CA9BC6-655D-412F-B4C7-0A157643AABB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-26--14-04-35." connectionId="23" xr16:uid="{4CC4C3C0-4844-4D4D-8AC0-E832E81FFED4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-06--17-47-09." connectionId="12" xr16:uid="{ECEFA34E-CCB7-42AA-AC57-047E85A9ADDD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-14--16-47-49." connectionId="14" xr16:uid="{FECD3EC5-31CC-4DEB-B1ED-62438F5D10C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6540,131 +7613,131 @@
 </file>
 
 <file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-04--06-16-55." connectionId="9" xr16:uid="{17979287-3AD5-4165-91C7-1E95996A45ED}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-28--20-59-58." connectionId="35" xr16:uid="{9DFBCD7C-8BF6-4DE9-A9B9-D46B6FE21C9C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-12--19-29-31." connectionId="39" xr16:uid="{F820AB09-BCC6-4702-9B75-7C7EB3A1B795}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-03--15-34-33." connectionId="59" xr16:uid="{DB05E1B9-7A87-4F3D-B17D-5C1533526D75}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-11-03--11-19-00." connectionId="81" xr16:uid="{18D836EE-6298-4C9A-8866-B31A4F507FD3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-01--09-11-48." connectionId="25" xr16:uid="{6592F4EE-C6A0-495C-9E10-219447083D26}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-23--16-41-35." connectionId="7" xr16:uid="{AA700FFB-BFA0-4D49-B221-64711A359D21}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-07--11-58-28." connectionId="47" xr16:uid="{EC1B15B5-699E-4715-AF84-76F199A356FE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-14--15-31-25." connectionId="69" xr16:uid="{A90C0232-293A-4105-BB68-EC7CC5890A5F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-06--17-47-09." connectionId="12" xr16:uid="{ECEFA34E-CCB7-42AA-AC57-047E85A9ADDD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-28--11-46-01." connectionId="57" xr16:uid="{2E5C4504-9483-4FBB-B23E-35DA37458390}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-30--16-20-14." connectionId="43" xr16:uid="{8547CDB3-800D-4D31-964B-F1C29571BE26}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-06--17-47-09." connectionId="13" xr16:uid="{E33AFC7B-97A7-4C93-9F2F-0E36BAC5F44D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-11--02-24-19." connectionId="49" xr16:uid="{EC483C8A-7978-42CF-A3F3-10E107A85AB4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-19--14-30-30." connectionId="41" xr16:uid="{D4F190DF-3F74-413E-A8CA-98241EDDA85F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-22--15-18-20." connectionId="67" xr16:uid="{0AA829A7-3EB2-46E1-A243-88D7887E3D33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-23--22-00-14." connectionId="79" xr16:uid="{7C321CE9-9FCC-4469-A0C3-BF46CFB5DFB2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-05--18-02-30." connectionId="37" xr16:uid="{F3836FF2-918E-420A-9914-EC71C6E19761}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-04--19-42-49." connectionId="73" xr16:uid="{76B57565-DDF1-4CEE-AB14-844E05099324}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-11--17-49-44." connectionId="75" xr16:uid="{D5F78082-9911-4C2D-9C18-9E73153D223B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-31--23-46-27." connectionId="10" xr16:uid="{3828880D-38FB-4A89-9770-E472B182A212}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-04--12-54-27." connectionId="45" xr16:uid="{51759692-A054-4DF8-816E-19318DCB9CA5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-22--14-08-05." connectionId="33" xr16:uid="{F8B65DAD-C548-43CC-A6A1-566491B9C7E1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-23--21-35-08." connectionId="51" xr16:uid="{6778CBAD-F1B3-42F6-B2E9-A9D43C611C8E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-26--16-43-29." connectionId="63" xr16:uid="{FCD92DE5-D443-469D-A085-69662EA92D8F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-03--09-28-47." connectionId="5" xr16:uid="{5D6C1F2E-42AE-4981-B08B-0A383F19F7B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-14--12-59-25." connectionId="55" xr16:uid="{F21676F3-346D-4CC4-AF01-23557ABB09F8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-20--10-04-32." connectionId="21" xr16:uid="{4C88DD11-61A8-4548-A340-EC8D294AB653}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-01--10-12-36." connectionId="29" xr16:uid="{ECED65A2-4966-440D-B0F3-A795469C6B8F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-26--14-04-35." connectionId="23" xr16:uid="{4CC4C3C0-4844-4D4D-8AC0-E832E81FFED4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable77.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-18--16-25-42." connectionId="77" xr16:uid="{09F6B3B4-586B-4BDB-9372-74DA882062C4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-07--11-58-28." connectionId="47" xr16:uid="{EC1B15B5-699E-4715-AF84-76F199A356FE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-11--17-49-44." connectionId="75" xr16:uid="{D5F78082-9911-4C2D-9C18-9E73153D223B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-03--09-28-47." connectionId="5" xr16:uid="{5D6C1F2E-42AE-4981-B08B-0A383F19F7B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-19--19-04-42." connectionId="61" xr16:uid="{D7CA359A-BA96-4E2F-9AB7-8CB59903F49D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-04--06-16-55." connectionId="8" xr16:uid="{036B6F06-8792-45F3-8A3D-E366A5A65AA0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-12--19-29-31." connectionId="39" xr16:uid="{F820AB09-BCC6-4702-9B75-7C7EB3A1B795}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-04--19-42-49." connectionId="73" xr16:uid="{76B57565-DDF1-4CEE-AB14-844E05099324}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable78.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-02--10-37-20." connectionId="65" xr16:uid="{C889E196-A7AD-49C9-952E-FF6276F482FA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-10--10-26-23." connectionId="27" xr16:uid="{1DC07640-42AE-4D0C-AD4B-FC91A61E6524}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-23--16-41-35." connectionId="7" xr16:uid="{AA700FFB-BFA0-4D49-B221-64711A359D21}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-11--02-24-19." connectionId="49" xr16:uid="{EC483C8A-7978-42CF-A3F3-10E107A85AB4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-26--16-43-29." connectionId="63" xr16:uid="{FCD92DE5-D443-469D-A085-69662EA92D8F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-14--16-47-49." connectionId="15" xr16:uid="{9ADB08CC-736D-40AD-AAE2-C05B46B6AE0C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-20--04-18-03." connectionId="17" xr16:uid="{BD73359A-AD2F-4704-BF7E-F9E303411E51}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-01--09-11-48." connectionId="25" xr16:uid="{6592F4EE-C6A0-495C-9E10-219447083D26}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-10-19--19-13-14." connectionId="1" xr16:uid="{5783A6B0-B4B0-42A8-9FA6-6768390A4C1A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-05--18-02-30." connectionId="37" xr16:uid="{F3836FF2-918E-420A-9914-EC71C6E19761}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-11--10-58-23." connectionId="53" xr16:uid="{708E98A1-6FFE-415A-82F9-D4DF65E1BFAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-28--20-59-58." connectionId="35" xr16:uid="{9DFBCD7C-8BF6-4DE9-A9B9-D46B6FE21C9C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-06--17-47-09." connectionId="13" xr16:uid="{E33AFC7B-97A7-4C93-9F2F-0E36BAC5F44D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-23--21-35-08." connectionId="51" xr16:uid="{6778CBAD-F1B3-42F6-B2E9-A9D43C611C8E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-18--16-25-42." connectionId="77" xr16:uid="{09F6B3B4-586B-4BDB-9372-74DA882062C4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-20--11-26-52." connectionId="71" xr16:uid="{A3CE5BC8-6653-4087-9741-B7D7698B5A89}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable77.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-11-03--11-19-00." connectionId="81" xr16:uid="{18D836EE-6298-4C9A-8866-B31A4F507FD3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable78.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-30--16-20-14." connectionId="43" xr16:uid="{8547CDB3-800D-4D31-964B-F1C29571BE26}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable79.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-22--14-08-05." connectionId="33" xr16:uid="{F8B65DAD-C548-43CC-A6A1-566491B9C7E1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-13--01-37-01." connectionId="31" xr16:uid="{EC51C05D-16D2-4749-A9E2-1A03759811A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-03--09-28-47." connectionId="4" xr16:uid="{E43A9973-C309-4C8C-88FA-B3A90584C0F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-04--06-16-55." connectionId="8" xr16:uid="{036B6F06-8792-45F3-8A3D-E366A5A65AA0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable80.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6672,11 +7745,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable81.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-28--11-46-01." connectionId="57" xr16:uid="{2E5C4504-9483-4FBB-B23E-35DA37458390}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-14--16-47-49." connectionId="15" xr16:uid="{9ADB08CC-736D-40AD-AAE2-C05B46B6AE0C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-20--04-18-03." connectionId="16" xr16:uid="{0A14F2D3-98C5-4A0F-B645-49125C615FBD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-11-06--18-22-16." connectionId="18" xr16:uid="{9C61BE59-38FD-4793-A655-4FC848FE1DD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6948,7 +8021,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C119" sqref="C119"/>
+      <selection pane="bottomRight" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14867,10 +15940,10 @@
   <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AG92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z137" sqref="Z137"/>
+      <selection pane="bottomRight" activeCell="AG115" sqref="AG115:AG118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29431,10 +30504,10 @@
   <dimension ref="A1:AQ144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ3" sqref="AQ3"/>
+      <selection pane="bottomRight" activeCell="B133" sqref="B133:B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47882,18 +48955,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DC3390-10E5-403B-AA58-2375154305C5}">
-  <dimension ref="B1:D2"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>2020</v>
       </c>
@@ -47904,19 +48981,86 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
         <v>211800000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>213300000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>214800000</v>
       </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="3">
+        <v>81386577</v>
+      </c>
+      <c r="C11" s="3">
+        <v>28178794</v>
+      </c>
+      <c r="D11" s="3">
+        <v>37980515</v>
+      </c>
+      <c r="E11" s="3">
+        <v>13463757</v>
+      </c>
+      <c r="F11" s="3">
+        <v>971655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6700000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>28300000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>32200000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>58500000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -47924,8 +49068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A8FD0C-BDF1-4C98-91C2-8BBF0927CFA1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC58" sqref="AC58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ColetasBR/Coletas BR - v1.1.xlsx
+++ b/ColetasBR/Coletas BR - v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\range\Documents\GitHub\TCC2\ColetasBR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A52E02-5A4F-4B1B-8BE7-168497761564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4DA203-6463-42D5-B9B6-5D34C101D6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-2020" sheetId="1" r:id="rId1"/>
@@ -7429,275 +7429,275 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-11-06--18-22-16." connectionId="18" xr16:uid="{9C61BE59-38FD-4793-A655-4FC848FE1DD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-28--11-46-01." connectionId="56" xr16:uid="{44584FC3-6540-442D-936B-3AA4FB17C7AE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-01--09-11-48." connectionId="24" xr16:uid="{CBF0A316-5534-4AD8-B72E-C6CC29E34469}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-26--16-43-29." connectionId="62" xr16:uid="{F8487CE0-6D42-4831-A7C0-35054AC98A4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-19--14-30-30." connectionId="40" xr16:uid="{FCBD3655-9649-4E7C-9004-3ADF79D19065}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-04--12-54-27." connectionId="44" xr16:uid="{ED6719FB-56CF-4D9A-99A6-20F2D00D3A2F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-11--02-24-19." connectionId="48" xr16:uid="{1D6EBC2B-6D36-4FC3-A1DF-F19ED759DEAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-26--14-04-35." connectionId="22" xr16:uid="{28C57D39-A16D-4D1C-BAE8-E4A0F99E6B62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-05--18-02-30." connectionId="36" xr16:uid="{6F7911C9-7961-4267-BA3E-DF94E36CF404}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-14--12-59-25." connectionId="54" xr16:uid="{27A16EBA-FE91-4C57-BA3C-7F1E53508E10}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-12--19-29-31." connectionId="38" xr16:uid="{89992F26-076D-4B08-8492-6C6577C82336}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-20--04-18-03." connectionId="16" xr16:uid="{0A14F2D3-98C5-4A0F-B645-49125C615FBD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-19--19-04-42." connectionId="60" xr16:uid="{EEE4F128-A8CB-4B5C-A06E-4DB7228D1F0A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-11--10-58-23." connectionId="52" xr16:uid="{5BCA2718-2192-4489-B887-F98D8EA364B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-23--21-35-08." connectionId="50" xr16:uid="{843C35F3-BBB9-4938-8561-98265A6B4E52}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-30--16-20-14." connectionId="42" xr16:uid="{C3761F56-E40D-45B5-86DB-85449DFDF8BC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-10-19--19-13-14." connectionId="2" xr16:uid="{2CFD31C4-9466-4789-8E9D-F92F44DD0729}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-04--19-42-49." connectionId="72" xr16:uid="{B9A7B024-E3F7-46F9-95F2-04A97D19DD2A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-18--16-25-42." connectionId="76" xr16:uid="{84D16A29-8C23-4A81-927E-49B0C9A808AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-02--10-37-20." connectionId="64" xr16:uid="{82D53AC8-0914-4098-95FF-A729067D0113}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-20--11-26-52." connectionId="70" xr16:uid="{77580255-2072-4742-B585-45F22FA5A6FE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-22--15-18-20." connectionId="66" xr16:uid="{496E912C-E26B-421B-8FC9-7AA4E9D41D6A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-31--23-46-27." connectionId="10" xr16:uid="{3828880D-38FB-4A89-9770-E472B182A212}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-14--15-31-25." connectionId="68" xr16:uid="{73DD4532-91C6-4C1E-81BD-4DA3C500557A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-13--01-37-01." connectionId="30" xr16:uid="{A289FB90-7665-4BCE-99E3-63C94B4A1063}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-28--20-59-58." connectionId="34" xr16:uid="{C92C1CB3-EB78-4844-B02B-8041F726FD80}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-03--15-34-33." connectionId="58" xr16:uid="{9880303F-C222-468D-8506-F2A764A0004C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-20--10-04-32." connectionId="20" xr16:uid="{FA816790-AFAE-4233-80D8-B2A5B9AC85C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-11--17-49-44." connectionId="74" xr16:uid="{C2D28593-50E3-45C6-A210-D63E28B7BC34}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-11-03--11-19-00." connectionId="80" xr16:uid="{C62D2D21-FA05-4D07-9737-2DFAE46E014D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-10--10-26-23." connectionId="26" xr16:uid="{43E54033-B9EC-4AF9-AC97-06FF8F6B0327}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-22--14-08-05." connectionId="32" xr16:uid="{465DE2E0-A3BA-452B-8430-40B1D3103D46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-01--10-12-36." connectionId="28" xr16:uid="{CD77897F-FEB5-4B31-A23F-B82B2407E78B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-14--16-47-49." connectionId="14" xr16:uid="{FECD3EC5-31CC-4DEB-B1ED-62438F5D10C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-23--22-00-14." connectionId="78" xr16:uid="{76A895F7-246D-4DF3-B554-716C0DAB1DFA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-07--11-58-28." connectionId="46" xr16:uid="{568865A5-B789-4757-9759-C3783685864C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-03--15-34-33." connectionId="59" xr16:uid="{DB05E1B9-7A87-4F3D-B17D-5C1533526D75}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-31--23-46-27." connectionId="11" xr16:uid="{86CA9BC6-655D-412F-B4C7-0A157643AABB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-07--11-58-28." connectionId="47" xr16:uid="{EC1B15B5-699E-4715-AF84-76F199A356FE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-19--19-04-42." connectionId="61" xr16:uid="{D7CA359A-BA96-4E2F-9AB7-8CB59903F49D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-01--09-11-48." connectionId="25" xr16:uid="{6592F4EE-C6A0-495C-9E10-219447083D26}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-28--11-46-01." connectionId="57" xr16:uid="{2E5C4504-9483-4FBB-B23E-35DA37458390}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-11--02-24-19." connectionId="49" xr16:uid="{EC483C8A-7978-42CF-A3F3-10E107A85AB4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-12--19-29-31." connectionId="39" xr16:uid="{F820AB09-BCC6-4702-9B75-7C7EB3A1B795}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-04--06-16-55." connectionId="8" xr16:uid="{036B6F06-8792-45F3-8A3D-E366A5A65AA0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-26--16-43-29." connectionId="63" xr16:uid="{FCD92DE5-D443-469D-A085-69662EA92D8F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-26--14-04-35." connectionId="23" xr16:uid="{4CC4C3C0-4844-4D4D-8AC0-E832E81FFED4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-11-06--18-22-16." connectionId="19" xr16:uid="{4F2D6951-D65F-4794-A8A3-913B6F79A835}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-04--12-54-27." connectionId="45" xr16:uid="{51759692-A054-4DF8-816E-19318DCB9CA5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-11--10-58-23." connectionId="53" xr16:uid="{708E98A1-6FFE-415A-82F9-D4DF65E1BFAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-04--06-16-55." connectionId="9" xr16:uid="{17979287-3AD5-4165-91C7-1E95996A45ED}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-11-03--11-19-00." connectionId="81" xr16:uid="{18D836EE-6298-4C9A-8866-B31A4F507FD3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-10--10-26-23." connectionId="27" xr16:uid="{1DC07640-42AE-4D0C-AD4B-FC91A61E6524}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-13--01-37-01." connectionId="31" xr16:uid="{EC51C05D-16D2-4749-A9E2-1A03759811A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-30--16-20-14." connectionId="43" xr16:uid="{8547CDB3-800D-4D31-964B-F1C29571BE26}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-10-19--19-13-14." connectionId="1" xr16:uid="{5783A6B0-B4B0-42A8-9FA6-6768390A4C1A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-22--14-08-05." connectionId="32" xr16:uid="{465DE2E0-A3BA-452B-8430-40B1D3103D46}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-22--15-18-20." connectionId="67" xr16:uid="{0AA829A7-3EB2-46E1-A243-88D7887E3D33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-26--14-04-35." connectionId="22" xr16:uid="{28C57D39-A16D-4D1C-BAE8-E4A0F99E6B62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-18--16-25-42." connectionId="77" xr16:uid="{09F6B3B4-586B-4BDB-9372-74DA882062C4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-04--12-54-27." connectionId="44" xr16:uid="{ED6719FB-56CF-4D9A-99A6-20F2D00D3A2F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-10-19--19-13-14." connectionId="3" xr16:uid="{192258C8-34DD-4161-9C5B-218FF006297C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-01--10-12-36." connectionId="28" xr16:uid="{CD77897F-FEB5-4B31-A23F-B82B2407E78B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-01--10-12-36." connectionId="29" xr16:uid="{ECED65A2-4966-440D-B0F3-A795469C6B8F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-20--10-04-32." connectionId="20" xr16:uid="{FA816790-AFAE-4233-80D8-B2A5B9AC85C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-03--09-28-47." connectionId="5" xr16:uid="{5D6C1F2E-42AE-4981-B08B-0A383F19F7B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-03--15-34-33." connectionId="58" xr16:uid="{9880303F-C222-468D-8506-F2A764A0004C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-14--16-47-49." connectionId="15" xr16:uid="{9ADB08CC-736D-40AD-AAE2-C05B46B6AE0C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-07--11-58-28." connectionId="46" xr16:uid="{568865A5-B789-4757-9759-C3783685864C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-23--22-00-14." connectionId="78" xr16:uid="{76A895F7-246D-4DF3-B554-716C0DAB1DFA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-01--09-11-48." connectionId="24" xr16:uid="{CBF0A316-5534-4AD8-B72E-C6CC29E34469}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-18--16-25-42." connectionId="76" xr16:uid="{84D16A29-8C23-4A81-927E-49B0C9A808AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-03--09-28-47." connectionId="4" xr16:uid="{E43A9973-C309-4C8C-88FA-B3A90584C0F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-22--15-18-20." connectionId="66" xr16:uid="{496E912C-E26B-421B-8FC9-7AA4E9D41D6A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-28--20-59-58." connectionId="34" xr16:uid="{C92C1CB3-EB78-4844-B02B-8041F726FD80}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-11-03--11-19-00." connectionId="80" xr16:uid="{C62D2D21-FA05-4D07-9737-2DFAE46E014D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-13--01-37-01." connectionId="30" xr16:uid="{A289FB90-7665-4BCE-99E3-63C94B4A1063}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-14--15-31-25." connectionId="68" xr16:uid="{73DD4532-91C6-4C1E-81BD-4DA3C500557A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-23--21-35-08." connectionId="50" xr16:uid="{843C35F3-BBB9-4938-8561-98265A6B4E52}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-04--19-42-49." connectionId="72" xr16:uid="{B9A7B024-E3F7-46F9-95F2-04A97D19DD2A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-11--17-49-44." connectionId="74" xr16:uid="{C2D28593-50E3-45C6-A210-D63E28B7BC34}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-30--16-20-14." connectionId="42" xr16:uid="{C3761F56-E40D-45B5-86DB-85449DFDF8BC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-28--11-46-01." connectionId="56" xr16:uid="{44584FC3-6540-442D-936B-3AA4FB17C7AE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-23--16-41-35." connectionId="6" xr16:uid="{35AECF7A-C0AC-41E8-B414-081A0BC9B3B3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-20--11-26-52." connectionId="70" xr16:uid="{77580255-2072-4742-B585-45F22FA5A6FE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-02--10-37-20." connectionId="64" xr16:uid="{82D53AC8-0914-4098-95FF-A729067D0113}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-14--12-59-25." connectionId="54" xr16:uid="{27A16EBA-FE91-4C57-BA3C-7F1E53508E10}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-26--16-43-29." connectionId="62" xr16:uid="{F8487CE0-6D42-4831-A7C0-35054AC98A4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-11--10-58-23." connectionId="52" xr16:uid="{5BCA2718-2192-4489-B887-F98D8EA364B6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-19--19-04-42." connectionId="60" xr16:uid="{EEE4F128-A8CB-4B5C-A06E-4DB7228D1F0A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-12--19-29-31." connectionId="38" xr16:uid="{89992F26-076D-4B08-8492-6C6577C82336}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-05--18-02-30." connectionId="36" xr16:uid="{6F7911C9-7961-4267-BA3E-DF94E36CF404}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-11--02-24-19." connectionId="48" xr16:uid="{1D6EBC2B-6D36-4FC3-A1DF-F19ED759DEAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-10-19--19-13-14." connectionId="2" xr16:uid="{2CFD31C4-9466-4789-8E9D-F92F44DD0729}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-20--04-18-03." connectionId="16" xr16:uid="{0A14F2D3-98C5-4A0F-B645-49125C615FBD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-19--14-30-30." connectionId="40" xr16:uid="{FCBD3655-9649-4E7C-9004-3ADF79D19065}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-10--10-26-23." connectionId="26" xr16:uid="{43E54033-B9EC-4AF9-AC97-06FF8F6B0327}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-19--19-04-42." connectionId="61" xr16:uid="{D7CA359A-BA96-4E2F-9AB7-8CB59903F49D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-20--10-04-32." connectionId="21" xr16:uid="{4C88DD11-61A8-4548-A340-EC8D294AB653}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-31--23-46-27." connectionId="11" xr16:uid="{86CA9BC6-655D-412F-B4C7-0A157643AABB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-20--11-26-52." connectionId="71" xr16:uid="{A3CE5BC8-6653-4087-9741-B7D7698B5A89}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-11--10-58-23." connectionId="53" xr16:uid="{708E98A1-6FFE-415A-82F9-D4DF65E1BFAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-14--12-59-25." connectionId="55" xr16:uid="{F21676F3-346D-4CC4-AF01-23557ABB09F8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-20--04-18-03." connectionId="17" xr16:uid="{BD73359A-AD2F-4704-BF7E-F9E303411E51}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-23--16-41-35." connectionId="7" xr16:uid="{AA700FFB-BFA0-4D49-B221-64711A359D21}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-10--10-26-23." connectionId="27" xr16:uid="{1DC07640-42AE-4D0C-AD4B-FC91A61E6524}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-26--14-04-35." connectionId="23" xr16:uid="{4CC4C3C0-4844-4D4D-8AC0-E832E81FFED4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-14--16-47-49." connectionId="14" xr16:uid="{FECD3EC5-31CC-4DEB-B1ED-62438F5D10C7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-10-19--19-13-14." connectionId="3" xr16:uid="{192258C8-34DD-4161-9C5B-218FF006297C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-04--06-16-55." connectionId="9" xr16:uid="{17979287-3AD5-4165-91C7-1E95996A45ED}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-28--20-59-58." connectionId="35" xr16:uid="{9DFBCD7C-8BF6-4DE9-A9B9-D46B6FE21C9C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-12--19-29-31." connectionId="39" xr16:uid="{F820AB09-BCC6-4702-9B75-7C7EB3A1B795}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-03--15-34-33." connectionId="59" xr16:uid="{DB05E1B9-7A87-4F3D-B17D-5C1533526D75}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-11-03--11-19-00." connectionId="81" xr16:uid="{18D836EE-6298-4C9A-8866-B31A4F507FD3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-01--09-11-48." connectionId="25" xr16:uid="{6592F4EE-C6A0-495C-9E10-219447083D26}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-23--16-41-35." connectionId="7" xr16:uid="{AA700FFB-BFA0-4D49-B221-64711A359D21}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-07--11-58-28." connectionId="47" xr16:uid="{EC1B15B5-699E-4715-AF84-76F199A356FE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-14--15-31-25." connectionId="69" xr16:uid="{A90C0232-293A-4105-BB68-EC7CC5890A5F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-06--17-47-09." connectionId="12" xr16:uid="{ECEFA34E-CCB7-42AA-AC57-047E85A9ADDD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-28--11-46-01." connectionId="57" xr16:uid="{2E5C4504-9483-4FBB-B23E-35DA37458390}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-30--16-20-14." connectionId="43" xr16:uid="{8547CDB3-800D-4D31-964B-F1C29571BE26}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-06--17-47-09." connectionId="13" xr16:uid="{E33AFC7B-97A7-4C93-9F2F-0E36BAC5F44D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-11--02-24-19." connectionId="49" xr16:uid="{EC483C8A-7978-42CF-A3F3-10E107A85AB4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-19--14-30-30." connectionId="41" xr16:uid="{D4F190DF-3F74-413E-A8CA-98241EDDA85F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-22--15-18-20." connectionId="67" xr16:uid="{0AA829A7-3EB2-46E1-A243-88D7887E3D33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-23--22-00-14." connectionId="79" xr16:uid="{7C321CE9-9FCC-4469-A0C3-BF46CFB5DFB2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-05--18-02-30." connectionId="37" xr16:uid="{F3836FF2-918E-420A-9914-EC71C6E19761}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-04--19-42-49." connectionId="73" xr16:uid="{76B57565-DDF1-4CEE-AB14-844E05099324}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-11--17-49-44." connectionId="75" xr16:uid="{D5F78082-9911-4C2D-9C18-9E73153D223B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-31--23-46-27." connectionId="10" xr16:uid="{3828880D-38FB-4A89-9770-E472B182A212}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-04--12-54-27." connectionId="45" xr16:uid="{51759692-A054-4DF8-816E-19318DCB9CA5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7705,51 +7705,51 @@
 </file>
 
 <file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-05--18-02-30." connectionId="37" xr16:uid="{F3836FF2-918E-420A-9914-EC71C6E19761}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-06--17-47-09." connectionId="13" xr16:uid="{E33AFC7B-97A7-4C93-9F2F-0E36BAC5F44D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-23--22-00-14." connectionId="79" xr16:uid="{7C321CE9-9FCC-4469-A0C3-BF46CFB5DFB2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-20--04-18-03." connectionId="17" xr16:uid="{BD73359A-AD2F-4704-BF7E-F9E303411E51}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-23--21-35-08." connectionId="51" xr16:uid="{6778CBAD-F1B3-42F6-B2E9-A9D43C611C8E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-26--16-43-29." connectionId="63" xr16:uid="{FCD92DE5-D443-469D-A085-69662EA92D8F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-03--09-28-47." connectionId="5" xr16:uid="{5D6C1F2E-42AE-4981-B08B-0A383F19F7B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-14--12-59-25." connectionId="55" xr16:uid="{F21676F3-346D-4CC4-AF01-23557ABB09F8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-01--10-12-36." connectionId="29" xr16:uid="{ECED65A2-4966-440D-B0F3-A795469C6B8F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable77.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-18--16-25-42." connectionId="77" xr16:uid="{09F6B3B4-586B-4BDB-9372-74DA882062C4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-04--19-42-49." connectionId="73" xr16:uid="{76B57565-DDF1-4CEE-AB14-844E05099324}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable78.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-14--15-31-25." connectionId="69" xr16:uid="{A90C0232-293A-4105-BB68-EC7CC5890A5F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable79.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-20--10-04-32." connectionId="21" xr16:uid="{4C88DD11-61A8-4548-A340-EC8D294AB653}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-23--16-41-35." connectionId="6" xr16:uid="{35AECF7A-C0AC-41E8-B414-081A0BC9B3B3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable80.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-02--10-37-20." connectionId="65" xr16:uid="{C889E196-A7AD-49C9-952E-FF6276F482FA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable79.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-13--01-37-01." connectionId="31" xr16:uid="{EC51C05D-16D2-4749-A9E2-1A03759811A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-04--06-16-55." connectionId="8" xr16:uid="{036B6F06-8792-45F3-8A3D-E366A5A65AA0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable80.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-11-06--18-22-16." connectionId="19" xr16:uid="{4F2D6951-D65F-4794-A8A3-913B6F79A835}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable81.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-14--16-47-49." connectionId="15" xr16:uid="{9ADB08CC-736D-40AD-AAE2-C05B46B6AE0C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-19--14-30-30." connectionId="41" xr16:uid="{D4F190DF-3F74-413E-A8CA-98241EDDA85F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-11-06--18-22-16." connectionId="18" xr16:uid="{9C61BE59-38FD-4793-A655-4FC848FE1DD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-03--09-28-47." connectionId="4" xr16:uid="{E43A9973-C309-4C8C-88FA-B3A90584C0F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15939,11 +15939,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A5C5C3-3794-44F5-9319-77A85B20666C}">
   <dimension ref="A1:AG144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="O62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG115" sqref="AG115:AG118"/>
+      <selection pane="bottomRight" activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49068,7 +49068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A8FD0C-BDF1-4C98-91C2-8BBF0927CFA1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC58" sqref="AC58"/>
     </sheetView>
   </sheetViews>
